--- a/assets/templates/principal_upload_template.xlsx
+++ b/assets/templates/principal_upload_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Libra\Backend\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF91168-7C2B-4400-8609-02CAB419C006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B7747-454E-4968-AB61-888E267F9ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="principal" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Description</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>ASCII Customer Code</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
 </sst>
 </file>
@@ -372,22 +378,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -395,16 +402,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -412,12 +422,15 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
